--- a/XDrive_bom.xlsx
+++ b/XDrive_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\[]00_project\XDrive-master\XDrive-master\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C24459\Desktop\02_manual\IC\component\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511F37A-56B5-4E61-A1A3-88D48BA9A03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7ADF7-0891-460C-B740-3192CC7A6F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">XDrive_bom!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="177">
   <si>
     <t>Comment</t>
   </si>
@@ -525,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100pF (101) 5% 50V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,6 +546,30 @@
   </si>
   <si>
     <t>+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +804,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,13 +1126,16 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="9.109375" style="13"/>
     <col min="9" max="9" width="9.109375" style="22"/>
@@ -1170,7 +1193,7 @@
         <v>163</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1196,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1222,12 +1245,12 @@
         <v>2</v>
       </c>
       <c r="I4" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>166</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
@@ -1251,7 +1274,7 @@
         <v>163</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1280,7 +1303,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1309,7 +1332,7 @@
         <v>163</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1334,7 +1357,9 @@
       <c r="G8" s="10">
         <v>2</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1361,6 +1386,9 @@
       <c r="H9" s="12" t="s">
         <v>163</v>
       </c>
+      <c r="I9" s="23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1387,6 +1415,9 @@
       <c r="H10" s="12" t="s">
         <v>163</v>
       </c>
+      <c r="I10" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1438,7 +1469,7 @@
         <v>163</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1467,7 +1498,7 @@
         <v>163</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1496,7 +1527,7 @@
         <v>163</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1525,7 +1556,7 @@
         <v>163</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1554,7 +1585,7 @@
         <v>163</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,7 +1614,7 @@
         <v>163</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1612,7 +1643,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,7 +1672,7 @@
         <v>163</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1667,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1696,7 +1727,7 @@
         <v>163</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1725,7 +1756,7 @@
         <v>163</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1754,7 +1785,7 @@
         <v>163</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1783,7 +1814,7 @@
         <v>163</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1812,7 +1843,7 @@
         <v>163</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1841,7 +1872,7 @@
         <v>163</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1870,7 +1901,7 @@
         <v>163</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1898,6 +1929,9 @@
       <c r="H28" s="12" t="s">
         <v>163</v>
       </c>
+      <c r="I28" s="23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -1924,6 +1958,9 @@
       <c r="H29" s="12" t="s">
         <v>163</v>
       </c>
+      <c r="I29" s="23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="30" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
@@ -1948,7 +1985,9 @@
         <v>4</v>
       </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="24" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -1976,7 +2015,7 @@
         <v>163</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,7 +2044,7 @@
         <v>163</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2034,7 +2073,7 @@
         <v>163</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,7 +2102,7 @@
         <v>163</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2092,7 +2131,7 @@
         <v>163</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2121,7 +2160,7 @@
         <v>163</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2150,7 +2189,7 @@
         <v>163</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,7 +2218,7 @@
         <v>163</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,7 +2247,7 @@
         <v>163</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2260,7 +2299,7 @@
         <v>163</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2289,7 +2328,7 @@
         <v>163</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
